--- a/courses.xlsx
+++ b/courses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>课程编号</t>
   </si>
@@ -29,13 +29,25 @@
     <t>学分</t>
   </si>
   <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>123542</t>
+  </si>
+  <si>
+    <t>322323</t>
+  </si>
+  <si>
+    <t>等级制(A,B,C,D,F)</t>
+  </si>
+  <si>
+    <t>123452</t>
+  </si>
+  <si>
     <t>22222</t>
   </si>
   <si>
     <t>222</t>
-  </si>
-  <si>
-    <t>12345</t>
   </si>
   <si>
     <t>百分制</t>
@@ -83,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,6 +132,40 @@
         <v>8</v>
       </c>
       <c r="E2" t="n">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
         <v>22222.0</v>
       </c>
     </row>

--- a/courses.xlsx
+++ b/courses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>课程编号</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>百分制</t>
+  </si>
+  <si>
+    <t>1234141</t>
+  </si>
+  <si>
+    <t>1342143</t>
+  </si>
+  <si>
+    <t>发东方市</t>
+  </si>
+  <si>
+    <t>发塞缝</t>
+  </si>
+  <si>
+    <t>11111</t>
   </si>
 </sst>
 </file>
@@ -95,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -169,6 +184,40 @@
         <v>22222.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1434131.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>41124.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/courses.xlsx
+++ b/courses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>课程编号</t>
   </si>
@@ -29,34 +29,73 @@
     <t>学分</t>
   </si>
   <si>
+    <t>132414</t>
+  </si>
+  <si>
+    <t>412434</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>百分制</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>234231</t>
+  </si>
+  <si>
+    <t>4324432</t>
+  </si>
+  <si>
+    <t>1234141</t>
+  </si>
+  <si>
+    <t>1342143</t>
+  </si>
+  <si>
+    <t>322323</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>43145</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>3424</t>
+  </si>
+  <si>
+    <t>123452</t>
+  </si>
+  <si>
+    <t>123542</t>
+  </si>
+  <si>
+    <t>等级制(A,B,C,D,F)</t>
+  </si>
+  <si>
     <t>12345</t>
   </si>
   <si>
-    <t>123542</t>
-  </si>
-  <si>
-    <t>322323</t>
-  </si>
-  <si>
-    <t>等级制(A,B,C,D,F)</t>
-  </si>
-  <si>
-    <t>123452</t>
-  </si>
-  <si>
     <t>22222</t>
   </si>
   <si>
     <t>222</t>
   </si>
   <si>
-    <t>百分制</t>
-  </si>
-  <si>
-    <t>1234141</t>
-  </si>
-  <si>
-    <t>1342143</t>
+    <t>453254432</t>
+  </si>
+  <si>
+    <t>523452</t>
   </si>
   <si>
     <t>发东方市</t>
@@ -65,7 +104,10 @@
     <t>发塞缝</t>
   </si>
   <si>
-    <t>11111</t>
+    <t>422文2</t>
+  </si>
+  <si>
+    <t>423424</t>
   </si>
 </sst>
 </file>
@@ -110,7 +152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -147,7 +189,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>123.0</v>
+        <v>411142.0</v>
       </c>
     </row>
     <row r="3">
@@ -155,7 +197,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -164,24 +206,24 @@
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>123.0</v>
+        <v>15125.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>22222.0</v>
+        <v>4132.0</v>
       </c>
     </row>
     <row r="5">
@@ -192,10 +234,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>1434131.0</v>
@@ -203,19 +245,138 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>424.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="n">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="n">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22222.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2153.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
         <v>41124.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>424343.0</v>
       </c>
     </row>
   </sheetData>
